--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gal-Gpr151.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gal-Gpr151.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Gpr151</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.834299696131709</v>
+        <v>4.725159666666667</v>
       </c>
       <c r="H2">
-        <v>0.834299696131709</v>
+        <v>14.175479</v>
       </c>
       <c r="I2">
-        <v>0.03362412415557103</v>
+        <v>0.1172822960752866</v>
       </c>
       <c r="J2">
-        <v>0.03362412415557103</v>
+        <v>0.1616684039777957</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.447782147081381</v>
+        <v>0.6236346666666667</v>
       </c>
       <c r="N2">
-        <v>0.447782147081381</v>
+        <v>1.870904</v>
       </c>
       <c r="O2">
-        <v>0.2649721946904726</v>
+        <v>0.31591202707223</v>
       </c>
       <c r="P2">
-        <v>0.2649721946904726</v>
+        <v>0.3439287576880111</v>
       </c>
       <c r="Q2">
-        <v>0.3735845092432004</v>
+        <v>2.946773373668445</v>
       </c>
       <c r="R2">
-        <v>0.3735845092432004</v>
+        <v>26.520960363016</v>
       </c>
       <c r="S2">
-        <v>0.008909457972046592</v>
+        <v>0.03705088789282924</v>
       </c>
       <c r="T2">
-        <v>0.008909457972046592</v>
+        <v>0.05560241333748677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.834299696131709</v>
+        <v>4.725159666666667</v>
       </c>
       <c r="H3">
-        <v>0.834299696131709</v>
+        <v>14.175479</v>
       </c>
       <c r="I3">
-        <v>0.03362412415557103</v>
+        <v>0.1172822960752866</v>
       </c>
       <c r="J3">
-        <v>0.03362412415557103</v>
+        <v>0.1616684039777957</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0783021895933604</v>
+        <v>0.110347</v>
       </c>
       <c r="N3">
-        <v>0.0783021895933604</v>
+        <v>0.331041</v>
       </c>
       <c r="O3">
-        <v>0.04633481517933635</v>
+        <v>0.05589802221493893</v>
       </c>
       <c r="P3">
-        <v>0.04633481517933635</v>
+        <v>0.0608553511424407</v>
       </c>
       <c r="Q3">
-        <v>0.06532749298418804</v>
+        <v>0.5214071937376668</v>
       </c>
       <c r="R3">
-        <v>0.06532749298418804</v>
+        <v>4.692664743639001</v>
       </c>
       <c r="S3">
-        <v>0.001557967578315443</v>
+        <v>0.006555848391435416</v>
       </c>
       <c r="T3">
-        <v>0.001557967578315443</v>
+        <v>0.009838387492706713</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.834299696131709</v>
+        <v>4.725159666666667</v>
       </c>
       <c r="H4">
-        <v>0.834299696131709</v>
+        <v>14.175479</v>
       </c>
       <c r="I4">
-        <v>0.03362412415557103</v>
+        <v>0.1172822960752866</v>
       </c>
       <c r="J4">
-        <v>0.03362412415557103</v>
+        <v>0.1616684039777957</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.298930724196478</v>
+        <v>0.307547</v>
       </c>
       <c r="N4">
-        <v>0.298930724196478</v>
+        <v>0.922641</v>
       </c>
       <c r="O4">
-        <v>0.1768903261709485</v>
+        <v>0.1557928084872069</v>
       </c>
       <c r="P4">
-        <v>0.1768903261709485</v>
+        <v>0.1696093294589269</v>
       </c>
       <c r="Q4">
-        <v>0.2493978123615533</v>
+        <v>1.453208680004334</v>
       </c>
       <c r="R4">
-        <v>0.2493978123615533</v>
+        <v>13.078878120039</v>
       </c>
       <c r="S4">
-        <v>0.00594778228909143</v>
+        <v>0.01827173829139703</v>
       </c>
       <c r="T4">
-        <v>0.00594778228909143</v>
+        <v>0.02742046959336884</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.834299696131709</v>
+        <v>4.725159666666667</v>
       </c>
       <c r="H5">
-        <v>0.834299696131709</v>
+        <v>14.175479</v>
       </c>
       <c r="I5">
-        <v>0.03362412415557103</v>
+        <v>0.1172822960752866</v>
       </c>
       <c r="J5">
-        <v>0.03362412415557103</v>
+        <v>0.1616684039777957</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.419246254254019</v>
+        <v>0.4501183333333333</v>
       </c>
       <c r="N5">
-        <v>0.419246254254019</v>
+        <v>1.350355</v>
       </c>
       <c r="O5">
-        <v>0.2480862643352724</v>
+        <v>0.2280145776144159</v>
       </c>
       <c r="P5">
-        <v>0.2480862643352724</v>
+        <v>0.2482361027544942</v>
       </c>
       <c r="Q5">
-        <v>0.3497770225284852</v>
+        <v>2.126880993893889</v>
       </c>
       <c r="R5">
-        <v>0.3497770225284852</v>
+        <v>19.141928945045</v>
       </c>
       <c r="S5">
-        <v>0.008341683353301014</v>
+        <v>0.02674207320125534</v>
       </c>
       <c r="T5">
-        <v>0.008341683353301014</v>
+        <v>0.04013193454198716</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.834299696131709</v>
+        <v>4.725159666666667</v>
       </c>
       <c r="H6">
-        <v>0.834299696131709</v>
+        <v>14.175479</v>
       </c>
       <c r="I6">
-        <v>0.03362412415557103</v>
+        <v>0.1172822960752866</v>
       </c>
       <c r="J6">
-        <v>0.03362412415557103</v>
+        <v>0.1616684039777957</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.445659952290982</v>
+        <v>0.48243</v>
       </c>
       <c r="N6">
-        <v>0.445659952290982</v>
+        <v>0.9648600000000001</v>
       </c>
       <c r="O6">
-        <v>0.2637163996239701</v>
+        <v>0.2443825646112081</v>
       </c>
       <c r="P6">
-        <v>0.2637163996239701</v>
+        <v>0.1773704589561273</v>
       </c>
       <c r="Q6">
-        <v>0.3718139627744382</v>
+        <v>2.279558777990001</v>
       </c>
       <c r="R6">
-        <v>0.3718139627744382</v>
+        <v>13.67735266794</v>
       </c>
       <c r="S6">
-        <v>0.008867232962816557</v>
+        <v>0.02866174829836957</v>
       </c>
       <c r="T6">
-        <v>0.008867232962816557</v>
+        <v>0.02867519901224621</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.640358668133363</v>
+        <v>0.9205450000000001</v>
       </c>
       <c r="H7">
-        <v>0.640358668133363</v>
+        <v>2.761635</v>
       </c>
       <c r="I7">
-        <v>0.02580787151337183</v>
+        <v>0.02284867366541012</v>
       </c>
       <c r="J7">
-        <v>0.02580787151337183</v>
+        <v>0.03149587557635405</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.447782147081381</v>
+        <v>0.6236346666666667</v>
       </c>
       <c r="N7">
-        <v>0.447782147081381</v>
+        <v>1.870904</v>
       </c>
       <c r="O7">
-        <v>0.2649721946904726</v>
+        <v>0.31591202707223</v>
       </c>
       <c r="P7">
-        <v>0.2649721946904726</v>
+        <v>0.3439287576880111</v>
       </c>
       <c r="Q7">
-        <v>0.2867411793189308</v>
+        <v>0.5740837742266667</v>
       </c>
       <c r="R7">
-        <v>0.2867411793189308</v>
+        <v>5.16675396804</v>
       </c>
       <c r="S7">
-        <v>0.006838368355187862</v>
+        <v>0.007218170813551588</v>
       </c>
       <c r="T7">
-        <v>0.006838368355187862</v>
+        <v>0.01083233735927162</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.640358668133363</v>
+        <v>0.9205450000000001</v>
       </c>
       <c r="H8">
-        <v>0.640358668133363</v>
+        <v>2.761635</v>
       </c>
       <c r="I8">
-        <v>0.02580787151337183</v>
+        <v>0.02284867366541012</v>
       </c>
       <c r="J8">
-        <v>0.02580787151337183</v>
+        <v>0.03149587557635405</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0783021895933604</v>
+        <v>0.110347</v>
       </c>
       <c r="N8">
-        <v>0.0783021895933604</v>
+        <v>0.331041</v>
       </c>
       <c r="O8">
-        <v>0.04633481517933635</v>
+        <v>0.05589802221493893</v>
       </c>
       <c r="P8">
-        <v>0.04633481517933635</v>
+        <v>0.0608553511424407</v>
       </c>
       <c r="Q8">
-        <v>0.05014148583993033</v>
+        <v>0.101579379115</v>
       </c>
       <c r="R8">
-        <v>0.05014148583993033</v>
+        <v>0.9142144120350001</v>
       </c>
       <c r="S8">
-        <v>0.001195802956744143</v>
+        <v>0.001277195668130985</v>
       </c>
       <c r="T8">
-        <v>0.001195802956744143</v>
+        <v>0.001916692567737647</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.640358668133363</v>
+        <v>0.9205450000000001</v>
       </c>
       <c r="H9">
-        <v>0.640358668133363</v>
+        <v>2.761635</v>
       </c>
       <c r="I9">
-        <v>0.02580787151337183</v>
+        <v>0.02284867366541012</v>
       </c>
       <c r="J9">
-        <v>0.02580787151337183</v>
+        <v>0.03149587557635405</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.298930724196478</v>
+        <v>0.307547</v>
       </c>
       <c r="N9">
-        <v>0.298930724196478</v>
+        <v>0.922641</v>
       </c>
       <c r="O9">
-        <v>0.1768903261709485</v>
+        <v>0.1557928084872069</v>
       </c>
       <c r="P9">
-        <v>0.1768903261709485</v>
+        <v>0.1696093294589269</v>
       </c>
       <c r="Q9">
-        <v>0.1914228804105983</v>
+        <v>0.283110853115</v>
       </c>
       <c r="R9">
-        <v>0.1914228804105983</v>
+        <v>2.547997678035</v>
       </c>
       <c r="S9">
-        <v>0.004565162809778274</v>
+        <v>0.003559659040541926</v>
       </c>
       <c r="T9">
-        <v>0.004565162809778274</v>
+        <v>0.005341994337227204</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.640358668133363</v>
+        <v>0.9205450000000001</v>
       </c>
       <c r="H10">
-        <v>0.640358668133363</v>
+        <v>2.761635</v>
       </c>
       <c r="I10">
-        <v>0.02580787151337183</v>
+        <v>0.02284867366541012</v>
       </c>
       <c r="J10">
-        <v>0.02580787151337183</v>
+        <v>0.03149587557635405</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.419246254254019</v>
+        <v>0.4501183333333333</v>
       </c>
       <c r="N10">
-        <v>0.419246254254019</v>
+        <v>1.350355</v>
       </c>
       <c r="O10">
-        <v>0.2480862643352724</v>
+        <v>0.2280145776144159</v>
       </c>
       <c r="P10">
-        <v>0.2480862643352724</v>
+        <v>0.2482361027544942</v>
       </c>
       <c r="Q10">
-        <v>0.2684679729940049</v>
+        <v>0.4143541811583334</v>
       </c>
       <c r="R10">
-        <v>0.2684679729940049</v>
+        <v>3.729187630425</v>
       </c>
       <c r="S10">
-        <v>0.00640257843419711</v>
+        <v>0.005209830674868115</v>
       </c>
       <c r="T10">
-        <v>0.00640257843419711</v>
+        <v>0.007818413405914586</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.640358668133363</v>
+        <v>0.9205450000000001</v>
       </c>
       <c r="H11">
-        <v>0.640358668133363</v>
+        <v>2.761635</v>
       </c>
       <c r="I11">
-        <v>0.02580787151337183</v>
+        <v>0.02284867366541012</v>
       </c>
       <c r="J11">
-        <v>0.02580787151337183</v>
+        <v>0.03149587557635405</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.445659952290982</v>
+        <v>0.48243</v>
       </c>
       <c r="N11">
-        <v>0.445659952290982</v>
+        <v>0.9648600000000001</v>
       </c>
       <c r="O11">
-        <v>0.2637163996239701</v>
+        <v>0.2443825646112081</v>
       </c>
       <c r="P11">
-        <v>0.2637163996239701</v>
+        <v>0.1773704589561273</v>
       </c>
       <c r="Q11">
-        <v>0.2853822134894313</v>
+        <v>0.4440985243500001</v>
       </c>
       <c r="R11">
-        <v>0.2853822134894313</v>
+        <v>2.6645911461</v>
       </c>
       <c r="S11">
-        <v>0.006805958957464438</v>
+        <v>0.005583817468317497</v>
       </c>
       <c r="T11">
-        <v>0.006805958957464438</v>
+        <v>0.005586437906202998</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.614709482563235</v>
+        <v>0.7249216666666666</v>
       </c>
       <c r="H12">
-        <v>0.614709482563235</v>
+        <v>2.174765</v>
       </c>
       <c r="I12">
-        <v>0.0247741525702894</v>
+        <v>0.01799314383832607</v>
       </c>
       <c r="J12">
-        <v>0.0247741525702894</v>
+        <v>0.02480274469573626</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.447782147081381</v>
+        <v>0.6236346666666667</v>
       </c>
       <c r="N12">
-        <v>0.447782147081381</v>
+        <v>1.870904</v>
       </c>
       <c r="O12">
-        <v>0.2649721946904726</v>
+        <v>0.31591202707223</v>
       </c>
       <c r="P12">
-        <v>0.2649721946904726</v>
+        <v>0.3439287576880111</v>
       </c>
       <c r="Q12">
-        <v>0.2752559319334501</v>
+        <v>0.4520862819511111</v>
       </c>
       <c r="R12">
-        <v>0.2752559319334501</v>
+        <v>4.06877653756</v>
       </c>
       <c r="S12">
-        <v>0.006564461578146195</v>
+        <v>0.005684250543367794</v>
       </c>
       <c r="T12">
-        <v>0.006564461578146195</v>
+        <v>0.008530377170457478</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.614709482563235</v>
+        <v>0.7249216666666666</v>
       </c>
       <c r="H13">
-        <v>0.614709482563235</v>
+        <v>2.174765</v>
       </c>
       <c r="I13">
-        <v>0.0247741525702894</v>
+        <v>0.01799314383832607</v>
       </c>
       <c r="J13">
-        <v>0.0247741525702894</v>
+        <v>0.02480274469573626</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.0783021895933604</v>
+        <v>0.110347</v>
       </c>
       <c r="N13">
-        <v>0.0783021895933604</v>
+        <v>0.331041</v>
       </c>
       <c r="O13">
-        <v>0.04633481517933635</v>
+        <v>0.05589802221493893</v>
       </c>
       <c r="P13">
-        <v>0.04633481517933635</v>
+        <v>0.0608553511424407</v>
       </c>
       <c r="Q13">
-        <v>0.04813309844850289</v>
+        <v>0.07999293115166667</v>
       </c>
       <c r="R13">
-        <v>0.04813309844850289</v>
+        <v>0.719936380365</v>
       </c>
       <c r="S13">
-        <v>0.00114790578056904</v>
+        <v>0.001005781153991342</v>
       </c>
       <c r="T13">
-        <v>0.00114790578056904</v>
+        <v>0.001509379737755339</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.614709482563235</v>
+        <v>0.7249216666666666</v>
       </c>
       <c r="H14">
-        <v>0.614709482563235</v>
+        <v>2.174765</v>
       </c>
       <c r="I14">
-        <v>0.0247741525702894</v>
+        <v>0.01799314383832607</v>
       </c>
       <c r="J14">
-        <v>0.0247741525702894</v>
+        <v>0.02480274469573626</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.298930724196478</v>
+        <v>0.307547</v>
       </c>
       <c r="N14">
-        <v>0.298930724196478</v>
+        <v>0.922641</v>
       </c>
       <c r="O14">
-        <v>0.1768903261709485</v>
+        <v>0.1557928084872069</v>
       </c>
       <c r="P14">
-        <v>0.1768903261709485</v>
+        <v>0.1696093294589269</v>
       </c>
       <c r="Q14">
-        <v>0.1837555507930701</v>
+        <v>0.2229474838183333</v>
       </c>
       <c r="R14">
-        <v>0.1837555507930701</v>
+        <v>2.006527354365</v>
       </c>
       <c r="S14">
-        <v>0.004382307928767335</v>
+        <v>0.002803202412087101</v>
       </c>
       <c r="T14">
-        <v>0.004382307928767335</v>
+        <v>0.004206776896584784</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.614709482563235</v>
+        <v>0.7249216666666666</v>
       </c>
       <c r="H15">
-        <v>0.614709482563235</v>
+        <v>2.174765</v>
       </c>
       <c r="I15">
-        <v>0.0247741525702894</v>
+        <v>0.01799314383832607</v>
       </c>
       <c r="J15">
-        <v>0.0247741525702894</v>
+        <v>0.02480274469573626</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.419246254254019</v>
+        <v>0.4501183333333333</v>
       </c>
       <c r="N15">
-        <v>0.419246254254019</v>
+        <v>1.350355</v>
       </c>
       <c r="O15">
-        <v>0.2480862643352724</v>
+        <v>0.2280145776144159</v>
       </c>
       <c r="P15">
-        <v>0.2480862643352724</v>
+        <v>0.2482361027544942</v>
       </c>
       <c r="Q15">
-        <v>0.2577146480190625</v>
+        <v>0.3263005323972222</v>
       </c>
       <c r="R15">
-        <v>0.2577146480190625</v>
+        <v>2.936704791575</v>
       </c>
       <c r="S15">
-        <v>0.006146126963235183</v>
+        <v>0.004102699092251349</v>
       </c>
       <c r="T15">
-        <v>0.006146126963235183</v>
+        <v>0.006156936680884272</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.614709482563235</v>
+        <v>0.7249216666666666</v>
       </c>
       <c r="H16">
-        <v>0.614709482563235</v>
+        <v>2.174765</v>
       </c>
       <c r="I16">
-        <v>0.0247741525702894</v>
+        <v>0.01799314383832607</v>
       </c>
       <c r="J16">
-        <v>0.0247741525702894</v>
+        <v>0.02480274469573626</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.445659952290982</v>
+        <v>0.48243</v>
       </c>
       <c r="N16">
-        <v>0.445659952290982</v>
+        <v>0.9648600000000001</v>
       </c>
       <c r="O16">
-        <v>0.2637163996239701</v>
+        <v>0.2443825646112081</v>
       </c>
       <c r="P16">
-        <v>0.2637163996239701</v>
+        <v>0.1773704589561273</v>
       </c>
       <c r="Q16">
-        <v>0.2739513986719455</v>
+        <v>0.34972395965</v>
       </c>
       <c r="R16">
-        <v>0.2739513986719455</v>
+        <v>2.0983437579</v>
       </c>
       <c r="S16">
-        <v>0.006533350319571644</v>
+        <v>0.004397210636628483</v>
       </c>
       <c r="T16">
-        <v>0.006533350319571644</v>
+        <v>0.004399274210054393</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>22.7231653293995</v>
+        <v>0.734263</v>
       </c>
       <c r="H17">
-        <v>22.7231653293995</v>
+        <v>2.202789</v>
       </c>
       <c r="I17">
-        <v>0.9157938517607678</v>
+        <v>0.01822500330954492</v>
       </c>
       <c r="J17">
-        <v>0.9157938517607678</v>
+        <v>0.02512235261537508</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.447782147081381</v>
+        <v>0.6236346666666667</v>
       </c>
       <c r="N17">
-        <v>0.447782147081381</v>
+        <v>1.870904</v>
       </c>
       <c r="O17">
-        <v>0.2649721946904726</v>
+        <v>0.31591202707223</v>
       </c>
       <c r="P17">
-        <v>0.2649721946904726</v>
+        <v>0.3439287576880111</v>
       </c>
       <c r="Q17">
-        <v>10.1750277596837</v>
+        <v>0.4579118612506667</v>
       </c>
       <c r="R17">
-        <v>10.1750277596837</v>
+        <v>4.121206751256</v>
       </c>
       <c r="S17">
-        <v>0.242659906785092</v>
+        <v>0.005757497738916435</v>
       </c>
       <c r="T17">
-        <v>0.242659906785092</v>
+        <v>0.008640299525206107</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>22.7231653293995</v>
+        <v>0.734263</v>
       </c>
       <c r="H18">
-        <v>22.7231653293995</v>
+        <v>2.202789</v>
       </c>
       <c r="I18">
-        <v>0.9157938517607678</v>
+        <v>0.01822500330954492</v>
       </c>
       <c r="J18">
-        <v>0.9157938517607678</v>
+        <v>0.02512235261537508</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0783021895933604</v>
+        <v>0.110347</v>
       </c>
       <c r="N18">
-        <v>0.0783021895933604</v>
+        <v>0.331041</v>
       </c>
       <c r="O18">
-        <v>0.04633481517933635</v>
+        <v>0.05589802221493893</v>
       </c>
       <c r="P18">
-        <v>0.04633481517933635</v>
+        <v>0.0608553511424407</v>
       </c>
       <c r="Q18">
-        <v>1.779273599783913</v>
+        <v>0.08102371926100001</v>
       </c>
       <c r="R18">
-        <v>1.779273599783913</v>
+        <v>0.7292134733490001</v>
       </c>
       <c r="S18">
-        <v>0.04243313886370772</v>
+        <v>0.001018741639864277</v>
       </c>
       <c r="T18">
-        <v>0.04243313886370772</v>
+        <v>0.001528829589932864</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>22.7231653293995</v>
+        <v>0.734263</v>
       </c>
       <c r="H19">
-        <v>22.7231653293995</v>
+        <v>2.202789</v>
       </c>
       <c r="I19">
-        <v>0.9157938517607678</v>
+        <v>0.01822500330954492</v>
       </c>
       <c r="J19">
-        <v>0.9157938517607678</v>
+        <v>0.02512235261537508</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.298930724196478</v>
+        <v>0.307547</v>
       </c>
       <c r="N19">
-        <v>0.298930724196478</v>
+        <v>0.922641</v>
       </c>
       <c r="O19">
-        <v>0.1768903261709485</v>
+        <v>0.1557928084872069</v>
       </c>
       <c r="P19">
-        <v>0.1768903261709485</v>
+        <v>0.1696093294589269</v>
       </c>
       <c r="Q19">
-        <v>6.792652267953692</v>
+        <v>0.225820382861</v>
       </c>
       <c r="R19">
-        <v>6.792652267953692</v>
+        <v>2.032383445749</v>
       </c>
       <c r="S19">
-        <v>0.1619950731433115</v>
+        <v>0.002839324450282643</v>
       </c>
       <c r="T19">
-        <v>0.1619950731433115</v>
+        <v>0.004260985381524487</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>22.7231653293995</v>
+        <v>0.734263</v>
       </c>
       <c r="H20">
-        <v>22.7231653293995</v>
+        <v>2.202789</v>
       </c>
       <c r="I20">
-        <v>0.9157938517607678</v>
+        <v>0.01822500330954492</v>
       </c>
       <c r="J20">
-        <v>0.9157938517607678</v>
+        <v>0.02512235261537508</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.419246254254019</v>
+        <v>0.4501183333333333</v>
       </c>
       <c r="N20">
-        <v>0.419246254254019</v>
+        <v>1.350355</v>
       </c>
       <c r="O20">
-        <v>0.2480862643352724</v>
+        <v>0.2280145776144159</v>
       </c>
       <c r="P20">
-        <v>0.2480862643352724</v>
+        <v>0.2482361027544942</v>
       </c>
       <c r="Q20">
-        <v>9.526601949145533</v>
+        <v>0.3305052377883334</v>
       </c>
       <c r="R20">
-        <v>9.526601949145533</v>
+        <v>2.974547140095</v>
       </c>
       <c r="S20">
-        <v>0.2271958755845391</v>
+        <v>0.004155566431647216</v>
       </c>
       <c r="T20">
-        <v>0.2271958755845391</v>
+        <v>0.006236274905264884</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.734263</v>
+      </c>
+      <c r="H21">
+        <v>2.202789</v>
+      </c>
+      <c r="I21">
+        <v>0.01822500330954492</v>
+      </c>
+      <c r="J21">
+        <v>0.02512235261537508</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.48243</v>
+      </c>
+      <c r="N21">
+        <v>0.9648600000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.2443825646112081</v>
+      </c>
+      <c r="P21">
+        <v>0.1773704589561273</v>
+      </c>
+      <c r="Q21">
+        <v>0.35423049909</v>
+      </c>
+      <c r="R21">
+        <v>2.12538299454</v>
+      </c>
+      <c r="S21">
+        <v>0.004453873048834343</v>
+      </c>
+      <c r="T21">
+        <v>0.004455963213446743</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>33.1838825</v>
+      </c>
+      <c r="H22">
+        <v>66.36776499999999</v>
+      </c>
+      <c r="I22">
+        <v>0.8236508831114323</v>
+      </c>
+      <c r="J22">
+        <v>0.756910623134739</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.6236346666666667</v>
+      </c>
+      <c r="N22">
+        <v>1.870904</v>
+      </c>
+      <c r="O22">
+        <v>0.31591202707223</v>
+      </c>
+      <c r="P22">
+        <v>0.3439287576880111</v>
+      </c>
+      <c r="Q22">
+        <v>20.69461950159333</v>
+      </c>
+      <c r="R22">
+        <v>124.16771700956</v>
+      </c>
+      <c r="S22">
+        <v>0.2602012200835649</v>
+      </c>
+      <c r="T22">
+        <v>0.2603233302955891</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>33.1838825</v>
+      </c>
+      <c r="H23">
+        <v>66.36776499999999</v>
+      </c>
+      <c r="I23">
+        <v>0.8236508831114323</v>
+      </c>
+      <c r="J23">
+        <v>0.756910623134739</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.110347</v>
+      </c>
+      <c r="N23">
+        <v>0.331041</v>
+      </c>
+      <c r="O23">
+        <v>0.05589802221493893</v>
+      </c>
+      <c r="P23">
+        <v>0.0608553511424407</v>
+      </c>
+      <c r="Q23">
+        <v>3.6617418822275</v>
+      </c>
+      <c r="R23">
+        <v>21.970451293365</v>
+      </c>
+      <c r="S23">
+        <v>0.04604045536151691</v>
+      </c>
+      <c r="T23">
+        <v>0.04606206175430814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>33.1838825</v>
+      </c>
+      <c r="H24">
+        <v>66.36776499999999</v>
+      </c>
+      <c r="I24">
+        <v>0.8236508831114323</v>
+      </c>
+      <c r="J24">
+        <v>0.756910623134739</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.307547</v>
+      </c>
+      <c r="N24">
+        <v>0.922641</v>
+      </c>
+      <c r="O24">
+        <v>0.1557928084872069</v>
+      </c>
+      <c r="P24">
+        <v>0.1696093294589269</v>
+      </c>
+      <c r="Q24">
+        <v>10.2056035112275</v>
+      </c>
+      <c r="R24">
+        <v>61.23362106736499</v>
+      </c>
+      <c r="S24">
+        <v>0.1283188842928982</v>
+      </c>
+      <c r="T24">
+        <v>0.1283791032502216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>22.7231653293995</v>
-      </c>
-      <c r="H21">
-        <v>22.7231653293995</v>
-      </c>
-      <c r="I21">
-        <v>0.9157938517607678</v>
-      </c>
-      <c r="J21">
-        <v>0.9157938517607678</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.445659952290982</v>
-      </c>
-      <c r="N21">
-        <v>0.445659952290982</v>
-      </c>
-      <c r="O21">
-        <v>0.2637163996239701</v>
-      </c>
-      <c r="P21">
-        <v>0.2637163996239701</v>
-      </c>
-      <c r="Q21">
-        <v>10.12680477660028</v>
-      </c>
-      <c r="R21">
-        <v>10.12680477660028</v>
-      </c>
-      <c r="S21">
-        <v>0.2415098573841175</v>
-      </c>
-      <c r="T21">
-        <v>0.2415098573841175</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>33.1838825</v>
+      </c>
+      <c r="H25">
+        <v>66.36776499999999</v>
+      </c>
+      <c r="I25">
+        <v>0.8236508831114323</v>
+      </c>
+      <c r="J25">
+        <v>0.756910623134739</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4501183333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.350355</v>
+      </c>
+      <c r="O25">
+        <v>0.2280145776144159</v>
+      </c>
+      <c r="P25">
+        <v>0.2482361027544942</v>
+      </c>
+      <c r="Q25">
+        <v>14.93667388442917</v>
+      </c>
+      <c r="R25">
+        <v>89.62004330657498</v>
+      </c>
+      <c r="S25">
+        <v>0.1878044082143939</v>
+      </c>
+      <c r="T25">
+        <v>0.1878925432204433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>33.1838825</v>
+      </c>
+      <c r="H26">
+        <v>66.36776499999999</v>
+      </c>
+      <c r="I26">
+        <v>0.8236508831114323</v>
+      </c>
+      <c r="J26">
+        <v>0.756910623134739</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.48243</v>
+      </c>
+      <c r="N26">
+        <v>0.9648600000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.2443825646112081</v>
+      </c>
+      <c r="P26">
+        <v>0.1773704589561273</v>
+      </c>
+      <c r="Q26">
+        <v>16.008900434475</v>
+      </c>
+      <c r="R26">
+        <v>64.0356017379</v>
+      </c>
+      <c r="S26">
+        <v>0.2012859151590582</v>
+      </c>
+      <c r="T26">
+        <v>0.134253584614177</v>
       </c>
     </row>
   </sheetData>
